--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3946383.288637057</v>
+        <v>3942050.803816366</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>48.68497127391993</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>222.5558614922615</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>61.15723745861207</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>244.5051982534758</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>125.6879771597553</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>22.96475740885588</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>297.5167848294985</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.255748559886</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30.60408762095418</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,19 +1375,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>75.21356227238219</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>44.95889092250177</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>109.090968037234</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695538</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>187.792060649081</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>214.397829669574</v>
       </c>
     </row>
     <row r="20">
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>143.2091541404069</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>276.7155083675887</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>133.1470961459097</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>41.74133133758713</v>
       </c>
       <c r="H31" t="n">
-        <v>73.22341869628546</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>101.6969570046971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>92.58181139165823</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>272.8976078885847</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>31.08121593769635</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>41.55695577161148</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>178.9060413124614</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>913.7382812066351</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="C2" t="n">
-        <v>913.7382812066351</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D2" t="n">
-        <v>555.4725825998845</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2374.308995860253</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2043.246108516683</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1690.477453246569</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X2" t="n">
-        <v>1690.477453246569</v>
+        <v>1613.857161318065</v>
       </c>
       <c r="Y2" t="n">
-        <v>1300.338121270757</v>
+        <v>1223.717829342253</v>
       </c>
     </row>
     <row r="3">
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.631062734689</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>263.631062734689</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>263.631062734689</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>115.7179691522958</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>263.631062734689</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1282.700798147047</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="C5" t="n">
-        <v>913.7382812066351</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>1027.824306174799</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>642.0360535765544</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>2042.766396472248</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>1669.300638211168</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y5" t="n">
-        <v>1669.300638211168</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5993065148977</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>268.5993065148977</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>268.5993065148977</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>704.9322595510242</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>704.9322595510242</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>704.9322595510242</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>450.2477713451374</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>450.2477713451374</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>450.2477713451374</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>450.2477713451374</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1130.084661047914</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>761.1221441075027</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977174</v>
@@ -4834,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1893.689751284806</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1520.223993023726</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1130.084661047914</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.7222632714563</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>210.7222632714563</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>210.7222632714563</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>210.7222632714563</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7222632714563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.7222632714563</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,31 +5029,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,28 +5062,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5120,28 +5120,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1320.560501433898</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1872.470231673185</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2296.093381168253</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>336.9860575577204</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>169.7899582726004</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2151.649524353727</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1862.574297697925</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1607.889809492038</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1318.472639455077</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1090.48308855706</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>869.6905094135296</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>432.9862109052757</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>286.0962634073653</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>286.0962634073653</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,37 +5503,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,10 +5551,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.8386896933887</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9025067654818</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>988.4871545236284</v>
+        <v>699.73118040114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2052.406834234631</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1797.722346028744</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1508.305175991783</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1520.445529061503</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1984.597634722449</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1729.913146516562</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532264</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1550.665004989558</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2102.574735228845</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3274.788447112224</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>3105.852264184317</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D31" t="n">
-        <v>2955.735624771981</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E31" t="n">
-        <v>2807.822531189588</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F31" t="n">
-        <v>2660.932583691678</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G31" t="n">
-        <v>2493.736484406558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>4221.331149328841</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>3966.646661122954</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.229491085994</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>3677.229491085994</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>3456.436911942464</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>411.1294017454277</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2978.516248701935</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>2978.516248701935</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>2828.399609289599</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>2680.486515707206</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F37" t="n">
-        <v>2586.969534503511</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>3160.164713532175</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7174,19 +7174,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356195</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>2104.263230450254</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1849.578742244367</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1560.161572207407</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1332.172021309389</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1111.379442165859</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7405,19 +7405,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7429,31 +7429,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>982.1492342949679</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>813.213051367061</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>663.0964119547252</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1492342949679</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>542.9134462654469</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.8641191832229</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1796.747907467618</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1542.063419261731</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1252.64624922477</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1024.656698326753</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>803.8641191832229</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8461,7 +8461,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>65.0811505738417</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>172.4465594047865</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>31.20374480898992</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>37.9175947399562</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
     </row>
     <row r="20">
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>142.9753202488372</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>9.46896602165549</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>34.09972495271811</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="H31" t="n">
-        <v>67.07129414993842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>65.54986409393075</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>52.83923663127301</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>13.28686650065941</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>115.3527467088728</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>629808.2225148411</v>
+        <v>629808.222514841</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>629808.2225148411</v>
+        <v>629808.222514841</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>629808.2225148411</v>
+        <v>629808.222514841</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>629808.2225148411</v>
+        <v>629808.222514841</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.934697756</v>
       </c>
       <c r="F2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="I2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977561</v>
       </c>
       <c r="K2" t="n">
         <v>786967.934697756</v>
@@ -26346,7 +26346,7 @@
         <v>786967.934697756</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977558</v>
@@ -26355,7 +26355,7 @@
         <v>786967.9346977557</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577087</v>
+        <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670389</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670436</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670434</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670444</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="J4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="L4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="N4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670489</v>
       </c>
       <c r="P4" t="n">
         <v>5067.592601670437</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-73375.73758800913</v>
+        <v>-73375.73758800916</v>
       </c>
       <c r="C6" t="n">
-        <v>516592.1416265356</v>
+        <v>516592.1416265354</v>
       </c>
       <c r="D6" t="n">
-        <v>516592.1416265351</v>
+        <v>516592.1416265354</v>
       </c>
       <c r="E6" t="n">
-        <v>-263594.96548553</v>
+        <v>-263942.3447398873</v>
       </c>
       <c r="F6" t="n">
-        <v>680777.8122721784</v>
+        <v>680430.4330178214</v>
       </c>
       <c r="G6" t="n">
-        <v>680777.8122721785</v>
+        <v>680430.4330178214</v>
       </c>
       <c r="H6" t="n">
-        <v>680777.8122721785</v>
+        <v>680430.4330178215</v>
       </c>
       <c r="I6" t="n">
-        <v>680777.8122721784</v>
+        <v>680430.4330178215</v>
       </c>
       <c r="J6" t="n">
-        <v>504354.5930795855</v>
+        <v>504007.2138252284</v>
       </c>
       <c r="K6" t="n">
-        <v>680777.8122721785</v>
+        <v>680430.4330178215</v>
       </c>
       <c r="L6" t="n">
-        <v>680777.8122721785</v>
+        <v>680430.4330178215</v>
       </c>
       <c r="M6" t="n">
-        <v>556569.3015641198</v>
+        <v>556221.9223097629</v>
       </c>
       <c r="N6" t="n">
-        <v>680777.8122721784</v>
+        <v>680430.4330178214</v>
       </c>
       <c r="O6" t="n">
-        <v>680777.8122721781</v>
+        <v>680430.4330178212</v>
       </c>
       <c r="P6" t="n">
-        <v>680777.8122721786</v>
+        <v>680430.4330178213</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245872</v>
+        <v>990.2318361245871</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>202.5391962343694</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>147.1752391862076</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>84.26381056431919</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>162.3708474882356</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>223.5529915576577</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634987</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>189.180781541163</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>57.16625679118442</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858303</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609831</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9594002052142798</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28098,16 +28098,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.591286086285833e-15</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31840,22 +31840,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31864,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,19 +32074,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32098,7 +32098,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,16 +32323,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>289.7537444526272</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>383.9182138639289</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O27" t="n">
-        <v>461.1007071927452</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>552.0015769888928</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33435,7 +33435,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>510.8679233250724</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,22 +33970,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>254.8897444730604</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33994,7 +33994,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>592.1874941409601</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34465,10 +34465,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,13 +34950,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K8" t="n">
         <v>297.2230414343419</v>
@@ -35181,16 +35181,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35421,7 +35421,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O11" t="n">
         <v>696.488651224316</v>
@@ -35488,22 +35488,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35512,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35746,7 +35746,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,16 +35971,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>20.54758114884936</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>151.9123054782682</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>249.9438064495987</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O27" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36852,10 +36852,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>418.0271695745625</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>82.88662398579324</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>379.5262112417391</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>116.3353646931863</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>453.6331143610859</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38113,10 +38113,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3942050.803816366</v>
+        <v>3943811.334119151</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>236.3400315130567</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>222.5558614922615</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>244.5051982534758</v>
+        <v>70.08948544450433</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>110.1458031968981</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>325.255748559886</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>74.20064764874475</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>75.21356227238219</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>62.18842302760083</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>214.397829669574</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>41.74133133758713</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="G34" t="n">
-        <v>23.10998325717172</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3432,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8253826161909023</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>60.25690685266593</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3954,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>41.55695577161148</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>837.1179892781316</v>
+        <v>1061.921889775366</v>
       </c>
       <c r="C2" t="n">
-        <v>837.1179892781316</v>
+        <v>1061.921889775366</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>703.6561911686151</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>703.6561911686151</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>292.6702863790076</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224073</v>
@@ -4342,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4372,10 +4372,10 @@
         <v>1838.661061815299</v>
       </c>
       <c r="X2" t="n">
-        <v>1613.857161318065</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y2" t="n">
-        <v>1223.717829342253</v>
+        <v>1448.521729839487</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1386.090004781549</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="C5" t="n">
-        <v>1386.090004781549</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="D5" t="n">
-        <v>1027.824306174799</v>
+        <v>851.6468184889688</v>
       </c>
       <c r="E5" t="n">
-        <v>642.0360535765544</v>
+        <v>465.8585658907246</v>
       </c>
       <c r="F5" t="n">
         <v>395.0611058457707</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y5" t="n">
-        <v>1386.090004781549</v>
+        <v>1209.912517095719</v>
       </c>
     </row>
     <row r="6">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>961.9755262757901</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>576.1872736775458</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>165.2013688879383</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977174</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4859,73 +4859,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4950,19 +4950,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,40 +5053,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5132,10 +5132,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958734</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C13" t="n">
-        <v>633.9926444679666</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D13" t="n">
-        <v>483.8760050556308</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E13" t="n">
-        <v>483.8760050556308</v>
+        <v>335.9629114732381</v>
       </c>
       <c r="F13" t="n">
-        <v>336.9860575577204</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>169.7899582726004</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W13" t="n">
         <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="14">
@@ -5269,37 +5269,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,16 +5354,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M15" t="n">
         <v>842.6091804069456</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5603,16 +5603,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>699.73118040114</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
         <v>699.73118040114</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>699.73118040114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -6129,19 +6129,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6214,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6308,22 +6308,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6363,19 +6363,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6600,16 +6600,16 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>580.8993044876688</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>430.7826650753331</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>282.8695714929399</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>135.9796239950296</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6837,22 +6837,22 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E34" t="n">
-        <v>264.0500279773688</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="F34" t="n">
-        <v>117.1600804794585</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>261.8464821474262</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
         <v>261.0127623330919</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7165,22 +7165,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.55866301478</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7405,19 +7405,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7429,31 +7429,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7548,25 +7548,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7602,7 +7602,7 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
         <v>1491.508541327549</v>
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>71.2204003741865</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>65.0811505738417</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>62.35543909864957</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>105.058398071027</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.186823682520753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>123.7828069546817</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>50.29392045468958</v>
       </c>
       <c r="G34" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>73.62417772602069</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,7 +26073,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="I2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977562</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977558</v>
@@ -26355,7 +26355,7 @@
         <v>786967.9346977557</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577088</v>
+        <v>944372.7777577091</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.200846139448641e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.200846139448641e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670354</v>
       </c>
       <c r="F4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="H4" t="n">
         <v>5067.592601670437</v>
@@ -26441,7 +26441,7 @@
         <v>5067.592601670438</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670436</v>
       </c>
       <c r="K4" t="n">
         <v>5067.592601670438</v>
@@ -26450,13 +26450,13 @@
         <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670431</v>
       </c>
       <c r="N4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670489</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="P4" t="n">
         <v>5067.592601670437</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-73375.73758800916</v>
+        <v>-73375.73758800904</v>
       </c>
       <c r="C6" t="n">
         <v>516592.1416265354</v>
       </c>
       <c r="D6" t="n">
-        <v>516592.1416265354</v>
+        <v>516592.1416265352</v>
       </c>
       <c r="E6" t="n">
-        <v>-263942.3447398873</v>
+        <v>-263629.7034109665</v>
       </c>
       <c r="F6" t="n">
-        <v>680430.4330178214</v>
+        <v>680743.0743467426</v>
       </c>
       <c r="G6" t="n">
-        <v>680430.4330178214</v>
+        <v>680743.0743467429</v>
       </c>
       <c r="H6" t="n">
-        <v>680430.4330178215</v>
+        <v>680743.0743467427</v>
       </c>
       <c r="I6" t="n">
-        <v>680430.4330178215</v>
+        <v>680743.0743467428</v>
       </c>
       <c r="J6" t="n">
-        <v>504007.2138252284</v>
+        <v>504319.85515415</v>
       </c>
       <c r="K6" t="n">
-        <v>680430.4330178215</v>
+        <v>680743.0743467429</v>
       </c>
       <c r="L6" t="n">
-        <v>680430.4330178215</v>
+        <v>680743.0743467426</v>
       </c>
       <c r="M6" t="n">
-        <v>556221.9223097629</v>
+        <v>556534.563638684</v>
       </c>
       <c r="N6" t="n">
-        <v>680430.4330178214</v>
+        <v>680743.0743467427</v>
       </c>
       <c r="O6" t="n">
-        <v>680430.4330178212</v>
+        <v>680743.0743467426</v>
       </c>
       <c r="P6" t="n">
-        <v>680430.4330178213</v>
+        <v>680743.0743467426</v>
       </c>
     </row>
   </sheetData>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26795,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245871</v>
+        <v>990.2318361245874</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.421015345093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>177.4441385077383</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>147.1752391862076</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>162.3708474882356</v>
+        <v>336.7865602972071</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,7 +27666,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>303.6383668238969</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858303</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.493936519830316e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28104,10 +28104,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,13 +28140,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -30039,10 +30039,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>357.9244589488886</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32086,16 +32086,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>248.3870916262918</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32323,7 +32323,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
@@ -32332,10 +32332,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -33028,25 +33028,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33435,7 +33435,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181304</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
         <v>297.2230414343419</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>226.5827468655553</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>108.4053175402703</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35971,7 +35971,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
